--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63051.83197911131</v>
+        <v>-74538.66871475843</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20323206.888386</v>
+        <v>20322126.89725401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>653008.3183745086</v>
+        <v>654468.3351509717</v>
       </c>
     </row>
     <row r="11">
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="R11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="S11" t="n">
-        <v>3.304445187265793</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.173080488067884</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1493,25 +1493,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3.095347570928117</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1624,16 +1624,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.677350190017866</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.290631848041482</v>
+        <v>2.173080488067884</v>
       </c>
       <c r="J14" t="n">
-        <v>6.290631848041482</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.786362146091506</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.540788531754937</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.290631848041482</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.290631848041482</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.290631848041482</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1855,61 +1855,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.815549631270956</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.345527720946972</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.16107735221793</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.272547700682507</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>10.40085984584234</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="T18" t="n">
-        <v>9.915158565377574</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5.786846420217741</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2092,49 +2092,49 @@
         <v>10.40085984584234</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="G20" t="n">
+        <v>9.161077352217927</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>10.40085984584234</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9.161077352217925</v>
-      </c>
-      <c r="S20" t="n">
-        <v>10.40085984584234</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2159,56 +2159,56 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.161077352217925</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.374230932000192</v>
+      </c>
+      <c r="R21" t="n">
         <v>10.40085984584234</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>5.786846420217736</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>13.26313419174924</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.57864820915168</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>13.7425402420767</v>
       </c>
       <c r="S24" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T24" t="n">
-        <v>15.05805425947915</v>
+        <v>14.57864820915163</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R26" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.419428874312969</v>
+        <v>9.419428874312937</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W26" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.500186294714744</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2678,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.330695053476177</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U27" t="n">
-        <v>6.747766860960756</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.84370531743626</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.419428874312979</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U29" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
     </row>
     <row r="30">
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>15.05805425947915</v>
+        <v>14.57864820915163</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V30" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="X30" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.419428874312965</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="E32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.84370531743626</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="S33" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.84370531743626</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="X35" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.419428874312986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R36" t="n">
         <v>13.7425402420767</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>15.05805425947916</v>
+        <v>12.24795315567544</v>
       </c>
       <c r="V36" t="n">
-        <v>14.57864820915171</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R38" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.419428874312986</v>
+        <v>9.419428874312937</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
     </row>
     <row r="39">
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.57864820915164</v>
       </c>
       <c r="G39" t="n">
-        <v>15.05805425947916</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>13.7425402420767</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>14.57864820915171</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="D41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W41" t="n">
-        <v>13.26313419174925</v>
+        <v>9.419428874312933</v>
       </c>
       <c r="X41" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3863,28 +3863,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>12.24795315567545</v>
       </c>
       <c r="T42" t="n">
-        <v>13.26313419174925</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>15.05805425947917</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.536891551628969</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.50979349205137</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="T44" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G45" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5891238419305952</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2811396522187209</v>
+        <v>3.077625506829139</v>
       </c>
       <c r="M11" t="n">
-        <v>3.760242848425392</v>
+        <v>9.305351036390196</v>
       </c>
       <c r="N11" t="n">
-        <v>7.239346044632065</v>
+        <v>15.53307656595125</v>
       </c>
       <c r="O11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="P11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.71844924083874</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="R11" t="n">
-        <v>7.168706157269028</v>
+        <v>9.052454927751757</v>
       </c>
       <c r="S11" t="n">
-        <v>3.83088273578843</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="T11" t="n">
-        <v>3.83088273578843</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="U11" t="n">
-        <v>3.83088273578843</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="V11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L12" t="n">
-        <v>3.760242848425392</v>
+        <v>6.730976077404375</v>
       </c>
       <c r="M12" t="n">
-        <v>4.095290750201658</v>
+        <v>12.95870160696543</v>
       </c>
       <c r="N12" t="n">
-        <v>7.574393946408329</v>
+        <v>19.18642713652649</v>
       </c>
       <c r="O12" t="n">
-        <v>11.053497142615</v>
+        <v>20.49229423418139</v>
       </c>
       <c r="P12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.50723952736634</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R12" t="n">
-        <v>6.957496443796629</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S12" t="n">
-        <v>3.40775336022692</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2811396522187209</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2811396522187209</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2811396522187209</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="C14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="D14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="E14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="F14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="G14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="H14" t="n">
-        <v>16.02610493387814</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="I14" t="n">
-        <v>9.671931349997852</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J14" t="n">
-        <v>3.317757766117567</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L14" t="n">
-        <v>3.077625506829147</v>
+        <v>3.077625506829139</v>
       </c>
       <c r="M14" t="n">
-        <v>9.305351036390213</v>
+        <v>9.305351036390196</v>
       </c>
       <c r="N14" t="n">
-        <v>15.53307656595128</v>
+        <v>15.53307656595125</v>
       </c>
       <c r="O14" t="n">
-        <v>21.76080209551235</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="P14" t="n">
-        <v>21.76080209551235</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.76080209551235</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="R14" t="n">
-        <v>21.76080209551235</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="S14" t="n">
-        <v>21.76080209551235</v>
+        <v>9.052454927751757</v>
       </c>
       <c r="T14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="U14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="V14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="W14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="X14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.76080209551235</v>
+        <v>2.698281343871483</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G15" t="n">
-        <v>19.56577129948417</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H15" t="n">
-        <v>13.21159771560389</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I15" t="n">
-        <v>6.857424131723604</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5032505478433185</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L15" t="n">
-        <v>6.730976077404385</v>
+        <v>1.809117645498225</v>
       </c>
       <c r="M15" t="n">
-        <v>12.95870160696545</v>
+        <v>8.036843175059282</v>
       </c>
       <c r="N15" t="n">
-        <v>14.26456870462036</v>
+        <v>14.26456870462034</v>
       </c>
       <c r="O15" t="n">
-        <v>20.49229423418143</v>
+        <v>20.49229423418139</v>
       </c>
       <c r="P15" t="n">
-        <v>25.16252739216593</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.16252739216593</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R15" t="n">
-        <v>25.16252739216593</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S15" t="n">
-        <v>25.16252739216593</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="T15" t="n">
-        <v>25.16252739216593</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="U15" t="n">
-        <v>25.16252739216593</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="V15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y15" t="n">
-        <v>25.16252739216593</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5032505478433186</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="C17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="D17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="E17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="F17" t="n">
-        <v>37.74934884673203</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="G17" t="n">
-        <v>27.24342981052765</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="H17" t="n">
-        <v>16.73751077432326</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="I17" t="n">
-        <v>6.231591738118874</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="J17" t="n">
         <v>0.8320687876673872</v>
       </c>
       <c r="K17" t="n">
-        <v>1.145633237736939</v>
+        <v>1.145633237736936</v>
       </c>
       <c r="L17" t="n">
-        <v>7.531173967228689</v>
+        <v>7.531173967228687</v>
       </c>
       <c r="M17" t="n">
         <v>17.82802521461261</v>
       </c>
       <c r="N17" t="n">
-        <v>28.12487646199653</v>
+        <v>28.12487646199652</v>
       </c>
       <c r="O17" t="n">
         <v>38.42172770938045</v>
@@ -5548,19 +5548,19 @@
         <v>41.60343938336936</v>
       </c>
       <c r="U17" t="n">
-        <v>41.60343938336936</v>
+        <v>31.09752034716498</v>
       </c>
       <c r="V17" t="n">
-        <v>41.60343938336936</v>
+        <v>20.59160131096059</v>
       </c>
       <c r="W17" t="n">
-        <v>41.60343938336936</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="X17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.60343938336936</v>
+        <v>0.8320687876673872</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="C18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="D18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="E18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="F18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="G18" t="n">
-        <v>7.167975556033556</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="H18" t="n">
-        <v>7.167975556033556</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="I18" t="n">
-        <v>7.167975556033556</v>
+        <v>0.8320687876673872</v>
       </c>
       <c r="J18" t="n">
         <v>0.8320687876673872</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8320687876673872</v>
+        <v>2.918652539274433</v>
       </c>
       <c r="L18" t="n">
-        <v>3.575159657161802</v>
+        <v>13.21550378665835</v>
       </c>
       <c r="M18" t="n">
-        <v>13.87201090454572</v>
+        <v>23.51235503404227</v>
       </c>
       <c r="N18" t="n">
-        <v>24.16886215192964</v>
+        <v>33.80920628142619</v>
       </c>
       <c r="O18" t="n">
-        <v>34.46571339931356</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="P18" t="n">
         <v>41.60343938336936</v>
@@ -5621,25 +5621,25 @@
         <v>27.68920627443751</v>
       </c>
       <c r="S18" t="n">
+        <v>27.68920627443751</v>
+      </c>
+      <c r="T18" t="n">
         <v>17.18328723823313</v>
       </c>
-      <c r="T18" t="n">
-        <v>7.167975556033556</v>
-      </c>
       <c r="U18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="V18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="W18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="X18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.167975556033556</v>
+        <v>11.33798782387177</v>
       </c>
     </row>
     <row r="19">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="C20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="D20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="E20" t="n">
-        <v>11.33798782387177</v>
+        <v>20.59160131096058</v>
       </c>
       <c r="F20" t="n">
-        <v>11.33798782387177</v>
+        <v>10.0856822747562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="K20" t="n">
-        <v>1.145633237736945</v>
+        <v>1.145633237736936</v>
       </c>
       <c r="L20" t="n">
-        <v>7.531173967228696</v>
+        <v>7.531173967228687</v>
       </c>
       <c r="M20" t="n">
-        <v>17.82802521461262</v>
+        <v>17.82802521461261</v>
       </c>
       <c r="N20" t="n">
-        <v>28.12487646199653</v>
+        <v>28.12487646199652</v>
       </c>
       <c r="O20" t="n">
         <v>38.42172770938043</v>
       </c>
       <c r="P20" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="R20" t="n">
-        <v>32.34982589628055</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="S20" t="n">
-        <v>21.84390686007616</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="T20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="U20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="V20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="W20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="X20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.84390686007616</v>
+        <v>31.09752034716497</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.34982589628055</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="C21" t="n">
-        <v>32.34982589628055</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="D21" t="n">
-        <v>21.84390686007616</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="E21" t="n">
+        <v>21.84390686007615</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21.84390686007615</v>
+      </c>
+      <c r="G21" t="n">
         <v>11.33798782387177</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.8320687876673872</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8320687876673872</v>
-      </c>
       <c r="H21" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8320687876673872</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8320687876673872</v>
+        <v>2.918652539274433</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1289200350513</v>
+        <v>13.21550378665835</v>
       </c>
       <c r="M21" t="n">
-        <v>13.87201090454572</v>
+        <v>23.51235503404226</v>
       </c>
       <c r="N21" t="n">
-        <v>24.16886215192964</v>
+        <v>33.80920628142618</v>
       </c>
       <c r="O21" t="n">
-        <v>34.46571339931356</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="P21" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336935</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.60343938336936</v>
+        <v>38.19512531064188</v>
       </c>
       <c r="R21" t="n">
-        <v>41.60343938336936</v>
+        <v>27.6892062744375</v>
       </c>
       <c r="S21" t="n">
-        <v>41.60343938336936</v>
+        <v>27.6892062744375</v>
       </c>
       <c r="T21" t="n">
-        <v>41.60343938336936</v>
+        <v>27.6892062744375</v>
       </c>
       <c r="U21" t="n">
-        <v>41.60343938336936</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="V21" t="n">
-        <v>41.60343938336936</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="W21" t="n">
-        <v>41.60343938336936</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="X21" t="n">
-        <v>41.60343938336936</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="Y21" t="n">
-        <v>41.60343938336936</v>
+        <v>21.84390686007615</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="C22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="D22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="E22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="F22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="G22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="H22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="I22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="J22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="K22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="L22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="M22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="N22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="O22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="P22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="R22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="S22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="T22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="U22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="V22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="W22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="X22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.60343938336936</v>
+        <v>0.832068787667387</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C23" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D23" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E23" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F23" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J23" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K23" t="n">
-        <v>3.442330717834886</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L23" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M23" t="n">
-        <v>27.12238855716251</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N23" t="n">
-        <v>42.02986227404686</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O23" t="n">
-        <v>54.87532469310615</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P23" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R23" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S23" t="n">
-        <v>45.02206122026089</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T23" t="n">
-        <v>31.62495597606974</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U23" t="n">
-        <v>16.41480015841404</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="V23" t="n">
-        <v>16.41480015841404</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="W23" t="n">
-        <v>16.41480015841404</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X23" t="n">
-        <v>16.41480015841404</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.41480015841404</v>
+        <v>46.83511179372539</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C24" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D24" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E24" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J24" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K24" t="n">
-        <v>1.204644340758332</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L24" t="n">
-        <v>13.29499852785217</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M24" t="n">
-        <v>21.90820629660678</v>
+        <v>21.90820629660675</v>
       </c>
       <c r="N24" t="n">
-        <v>36.81568001349113</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O24" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R24" t="n">
-        <v>46.35086325804113</v>
+        <v>46.35086325804105</v>
       </c>
       <c r="S24" t="n">
-        <v>31.14070744038543</v>
+        <v>31.14070744038537</v>
       </c>
       <c r="T24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="U24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="V24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.93055162272972</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J26" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K26" t="n">
-        <v>3.442330717834867</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L26" t="n">
-        <v>12.21491484027814</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M26" t="n">
-        <v>27.12238855716249</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N26" t="n">
-        <v>42.02986227404685</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O26" t="n">
-        <v>54.87532469310614</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.34968641424359</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="R26" t="n">
-        <v>41.13953059658789</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="S26" t="n">
-        <v>31.62495597606974</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="T26" t="n">
-        <v>31.62495597606974</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U26" t="n">
-        <v>31.62495597606974</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V26" t="n">
-        <v>31.62495597606974</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.41480015841404</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H27" t="n">
-        <v>6.760388072793427</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I27" t="n">
-        <v>6.760388072793427</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J27" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K27" t="n">
-        <v>4.59811586845191</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L27" t="n">
-        <v>7.000732579722424</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M27" t="n">
-        <v>21.90820629660678</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N27" t="n">
-        <v>36.81568001349113</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O27" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P27" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.87797961016287</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R27" t="n">
-        <v>43.99662583028741</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S27" t="n">
-        <v>28.78647001263171</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T27" t="n">
-        <v>28.78647001263171</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="U27" t="n">
-        <v>21.97054389044913</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="V27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.97054389044913</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.204644340758332</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="C29" t="n">
-        <v>1.204644340758332</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J29" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K29" t="n">
-        <v>3.442330717834886</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L29" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M29" t="n">
-        <v>27.12238855716251</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N29" t="n">
-        <v>42.02986227404686</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O29" t="n">
-        <v>54.87532469310615</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P29" t="n">
-        <v>60.2322170379166</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.34968641424361</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R29" t="n">
-        <v>56.34968641424361</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S29" t="n">
-        <v>46.83511179372545</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T29" t="n">
-        <v>31.62495597606974</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U29" t="n">
-        <v>16.41480015841404</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V29" t="n">
-        <v>16.41480015841404</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="W29" t="n">
-        <v>16.41480015841404</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X29" t="n">
-        <v>1.204644340758332</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.204644340758332</v>
+        <v>29.81190540260514</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K30" t="n">
-        <v>4.59811586845191</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L30" t="n">
-        <v>16.68847005554575</v>
+        <v>7.000732579722417</v>
       </c>
       <c r="M30" t="n">
-        <v>31.59594377243011</v>
+        <v>21.90820629660675</v>
       </c>
       <c r="N30" t="n">
-        <v>36.81568001349113</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O30" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P30" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R30" t="n">
-        <v>60.23221703791658</v>
+        <v>46.35086325804105</v>
       </c>
       <c r="S30" t="n">
-        <v>60.23221703791658</v>
+        <v>46.35086325804105</v>
       </c>
       <c r="T30" t="n">
-        <v>45.02206122026088</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="U30" t="n">
-        <v>45.02206122026088</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="V30" t="n">
-        <v>29.81190540260518</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W30" t="n">
-        <v>14.60174958494947</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.83511179372545</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="C32" t="n">
-        <v>31.62495597606974</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="D32" t="n">
-        <v>16.41480015841404</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="E32" t="n">
-        <v>1.204644340758332</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J32" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K32" t="n">
-        <v>3.442330717834878</v>
+        <v>3.442330717834871</v>
       </c>
       <c r="L32" t="n">
-        <v>12.21491484027815</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M32" t="n">
-        <v>27.12238855716249</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N32" t="n">
-        <v>42.02986227404685</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O32" t="n">
-        <v>54.87532469310613</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.34968641424359</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R32" t="n">
-        <v>56.34968641424359</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S32" t="n">
-        <v>56.34968641424359</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="W32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.34968641424359</v>
+        <v>45.02206122026082</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="D33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F33" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J33" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K33" t="n">
-        <v>4.59811586845191</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L33" t="n">
-        <v>16.68847005554575</v>
+        <v>13.29499852785217</v>
       </c>
       <c r="M33" t="n">
-        <v>31.59594377243011</v>
+        <v>28.2024722447365</v>
       </c>
       <c r="N33" t="n">
-        <v>46.50341748931446</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O33" t="n">
-        <v>51.54902890335271</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P33" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.23221703791658</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R33" t="n">
-        <v>60.23221703791658</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="S33" t="n">
-        <v>46.83511179372545</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="T33" t="n">
-        <v>31.62495597606974</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U33" t="n">
-        <v>16.41480015841404</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="V33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="X33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.204644340758332</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.204644340758333</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="C35" t="n">
-        <v>1.204644340758333</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="D35" t="n">
-        <v>1.204644340758333</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="E35" t="n">
-        <v>1.204644340758333</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="F35" t="n">
-        <v>1.204644340758333</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G35" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H35" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I35" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J35" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K35" t="n">
-        <v>3.442330717834892</v>
+        <v>3.44233071783488</v>
       </c>
       <c r="L35" t="n">
-        <v>12.21491484027817</v>
+        <v>12.21491484027814</v>
       </c>
       <c r="M35" t="n">
-        <v>27.12238855716252</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N35" t="n">
-        <v>42.0298622740469</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O35" t="n">
-        <v>54.87532469310619</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23221703791665</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.34968641424366</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R35" t="n">
-        <v>41.13953059658794</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S35" t="n">
-        <v>41.13953059658794</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T35" t="n">
-        <v>41.13953059658794</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="U35" t="n">
-        <v>41.13953059658794</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="V35" t="n">
-        <v>25.92937477893222</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="W35" t="n">
-        <v>25.92937477893222</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="X35" t="n">
-        <v>10.7192189612765</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.204644340758333</v>
+        <v>31.62495597606969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G36" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H36" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I36" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J36" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K36" t="n">
-        <v>4.598115868451911</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L36" t="n">
-        <v>16.68847005554575</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M36" t="n">
-        <v>21.90820629660683</v>
+        <v>31.59594377243006</v>
       </c>
       <c r="N36" t="n">
-        <v>36.8156800134912</v>
+        <v>46.5034174893144</v>
       </c>
       <c r="O36" t="n">
-        <v>51.54902890335278</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="P36" t="n">
-        <v>60.23221703791665</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.23221703791665</v>
+        <v>57.87797961016278</v>
       </c>
       <c r="R36" t="n">
-        <v>46.35086325804119</v>
+        <v>43.99662583028731</v>
       </c>
       <c r="S36" t="n">
-        <v>46.35086325804119</v>
+        <v>43.99662583028731</v>
       </c>
       <c r="T36" t="n">
-        <v>46.35086325804119</v>
+        <v>43.99662583028731</v>
       </c>
       <c r="U36" t="n">
-        <v>31.14070744038548</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="V36" t="n">
-        <v>16.41480015841405</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="W36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.23221703791665</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.41480015841405</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C38" t="n">
-        <v>16.41480015841405</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D38" t="n">
-        <v>16.41480015841405</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E38" t="n">
-        <v>16.41480015841405</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F38" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G38" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H38" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I38" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J38" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K38" t="n">
-        <v>3.442330717834882</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L38" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M38" t="n">
-        <v>27.12238855716253</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N38" t="n">
-        <v>42.02986227404691</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O38" t="n">
-        <v>54.87532469310619</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23221703791665</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.34968641424366</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="R38" t="n">
-        <v>41.13953059658794</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="S38" t="n">
-        <v>31.62495597606977</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="T38" t="n">
-        <v>31.62495597606977</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="U38" t="n">
-        <v>16.41480015841405</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="V38" t="n">
-        <v>16.41480015841405</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="W38" t="n">
-        <v>16.41480015841405</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="X38" t="n">
-        <v>16.41480015841405</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.41480015841405</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="C39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="D39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="E39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="F39" t="n">
-        <v>16.41480015841405</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G39" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H39" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I39" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J39" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K39" t="n">
-        <v>4.598115868451911</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L39" t="n">
-        <v>16.68847005554575</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M39" t="n">
-        <v>31.59594377243013</v>
+        <v>30.59139443117062</v>
       </c>
       <c r="N39" t="n">
-        <v>36.8156800134912</v>
+        <v>45.49886814805495</v>
       </c>
       <c r="O39" t="n">
-        <v>51.54902890335278</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P39" t="n">
-        <v>60.23221703791665</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.23221703791665</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R39" t="n">
-        <v>46.35086325804119</v>
+        <v>46.35086325804105</v>
       </c>
       <c r="S39" t="n">
-        <v>46.35086325804119</v>
+        <v>31.14070744038537</v>
       </c>
       <c r="T39" t="n">
-        <v>46.35086325804119</v>
+        <v>31.14070744038537</v>
       </c>
       <c r="U39" t="n">
-        <v>31.62495597606977</v>
+        <v>31.14070744038537</v>
       </c>
       <c r="V39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="W39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="X39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.41480015841405</v>
+        <v>15.93055162272968</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.62495597606978</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C41" t="n">
-        <v>31.62495597606978</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D41" t="n">
-        <v>16.41480015841406</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E41" t="n">
-        <v>16.41480015841406</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F41" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G41" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H41" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I41" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J41" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K41" t="n">
-        <v>3.442330717834883</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L41" t="n">
-        <v>12.21491484027816</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M41" t="n">
-        <v>27.12238855716254</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N41" t="n">
-        <v>42.02986227404692</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O41" t="n">
-        <v>54.87532469310621</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23221703791667</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.23221703791667</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="R41" t="n">
-        <v>60.23221703791667</v>
+        <v>56.34968641424351</v>
       </c>
       <c r="S41" t="n">
-        <v>60.23221703791667</v>
+        <v>41.13953059658782</v>
       </c>
       <c r="T41" t="n">
-        <v>60.23221703791667</v>
+        <v>41.13953059658782</v>
       </c>
       <c r="U41" t="n">
-        <v>60.23221703791667</v>
+        <v>41.13953059658782</v>
       </c>
       <c r="V41" t="n">
-        <v>60.23221703791667</v>
+        <v>25.92937477893213</v>
       </c>
       <c r="W41" t="n">
-        <v>46.8351117937255</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X41" t="n">
-        <v>31.62495597606978</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.62495597606978</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="D42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F42" t="n">
-        <v>1.204644340758333</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G42" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H42" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I42" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J42" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K42" t="n">
-        <v>4.598115868451912</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L42" t="n">
-        <v>16.68847005554575</v>
+        <v>13.29499852785217</v>
       </c>
       <c r="M42" t="n">
-        <v>31.59594377243013</v>
+        <v>21.90820629660675</v>
       </c>
       <c r="N42" t="n">
-        <v>36.81568001349122</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O42" t="n">
-        <v>51.5490289033528</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P42" t="n">
-        <v>60.23221703791667</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.23221703791667</v>
+        <v>57.87797961016279</v>
       </c>
       <c r="R42" t="n">
-        <v>60.23221703791667</v>
+        <v>43.99662583028733</v>
       </c>
       <c r="S42" t="n">
-        <v>60.23221703791667</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="T42" t="n">
-        <v>46.8351117937255</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="U42" t="n">
-        <v>31.62495597606978</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V42" t="n">
-        <v>31.62495597606978</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W42" t="n">
-        <v>16.41480015841406</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="X42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.204644340758333</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.204644340758333</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="H44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="I44" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J44" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K44" t="n">
-        <v>5.219099475992287</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L44" t="n">
-        <v>15.88227649088184</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M44" t="n">
-        <v>32.8933990788639</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N44" t="n">
-        <v>50.92952327646101</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O44" t="n">
-        <v>65.79354395927301</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P44" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.31071236238331</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R44" t="n">
-        <v>56.66445630980617</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="S44" t="n">
-        <v>56.66445630980617</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="T44" t="n">
-        <v>38.26212573374545</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="U44" t="n">
-        <v>19.85979515768473</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.457464581624009</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E45" t="n">
-        <v>38.26212573374545</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F45" t="n">
-        <v>19.85979515768473</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K45" t="n">
-        <v>5.886021080118655</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L45" t="n">
-        <v>19.36817474787379</v>
+        <v>13.29499852785217</v>
       </c>
       <c r="M45" t="n">
-        <v>37.40429894547091</v>
+        <v>28.2024722447365</v>
       </c>
       <c r="N45" t="n">
-        <v>46.70753313916133</v>
+        <v>43.10994596162084</v>
       </c>
       <c r="O45" t="n">
-        <v>62.96599962173946</v>
+        <v>57.8432948514824</v>
       </c>
       <c r="P45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R45" t="n">
-        <v>72.87322908120045</v>
+        <v>46.83511179372539</v>
       </c>
       <c r="S45" t="n">
-        <v>72.87322908120045</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="T45" t="n">
-        <v>72.87322908120045</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="U45" t="n">
-        <v>72.87322908120045</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="V45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.66445630980617</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M46" t="n">
-        <v>72.27815449339177</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.87322908120045</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
   </sheetData>
@@ -22573,7 +22573,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K2" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L2" t="n">
         <v>5.341568553442613</v>
@@ -22588,7 +22588,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P2" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q2" t="n">
         <v>13.562754156455</v>
@@ -22670,7 +22670,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R3" t="n">
         <v>16.73234637554063</v>
@@ -22731,7 +22731,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K4" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L4" t="n">
         <v>7.985433933586291</v>
@@ -23272,19 +23272,19 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0528947167082</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H11" t="n">
-        <v>292.4033540752549</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I11" t="n">
-        <v>25.18823956290306</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J11" t="n">
-        <v>8.81455916294134</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K11" t="n">
-        <v>4.882447110169775</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,31 +23299,31 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.663715710621226</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.907482314967268</v>
+        <v>1.837393531382574</v>
       </c>
       <c r="R11" t="n">
-        <v>16.26805913515531</v>
+        <v>12.45657611978727</v>
       </c>
       <c r="S11" t="n">
-        <v>94.48689352167868</v>
+        <v>91.12521057153313</v>
       </c>
       <c r="T11" t="n">
-        <v>217.6535586230366</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7519381439728</v>
+        <v>255.7506198904062</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>351.7414402369451</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>404.0885531911962</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23351,19 +23351,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.98333688051382</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H12" t="n">
-        <v>51.5877989750671</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I12" t="n">
-        <v>11.70004949185546</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J12" t="n">
-        <v>8.338679062289817</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K12" t="n">
-        <v>1.423687230389685</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,25 +23381,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.651531036112157</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R12" t="n">
-        <v>12.09365383997138</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S12" t="n">
-        <v>74.5839760901919</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T12" t="n">
-        <v>136.8422119666971</v>
+        <v>133.6113906125615</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9119682521874</v>
+        <v>176.6207563648039</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>196.6327756240849</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>189.0153748633601</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23430,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.485498573125</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3900730432698</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I13" t="n">
-        <v>95.49591940516507</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J13" t="n">
-        <v>12.93742448802936</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K13" t="n">
-        <v>8.312287663815166</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L13" t="n">
-        <v>5.72808646333668</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M13" t="n">
-        <v>5.504644856982839</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N13" t="n">
-        <v>4.084011291914905</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O13" t="n">
-        <v>7.106464584984073</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P13" t="n">
-        <v>9.209667030483869</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.50055255410195</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R13" t="n">
-        <v>41.6716226305684</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S13" t="n">
-        <v>166.535841987722</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T13" t="n">
-        <v>240.440648162495</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3766639363941</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23512,16 +23512,16 @@
         <v>400.0364165471253</v>
       </c>
       <c r="H14" t="n">
-        <v>286.5572468309963</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I14" t="n">
-        <v>18.2623330820176</v>
+        <v>22.3798844419912</v>
       </c>
       <c r="J14" t="n">
-        <v>1.125363269264895</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,19 +23536,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2941343268911041</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.128025379424038</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R14" t="n">
-        <v>18.74720796782874</v>
+        <v>12.45657611978727</v>
       </c>
       <c r="S14" t="n">
-        <v>97.4158424195746</v>
+        <v>91.12521057153313</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5814254356876</v>
+        <v>211.2907935876461</v>
       </c>
       <c r="U14" t="n">
         <v>255.7506198904062</v>
@@ -23588,16 +23588,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>87.43373175075989</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H15" t="n">
-        <v>45.21201735161431</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I15" t="n">
-        <v>5.105863721480297</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J15" t="n">
-        <v>1.21507204979104</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,22 +23618,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.040345688132867</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R15" t="n">
         <v>15.06049703097857</v>
       </c>
       <c r="S15" t="n">
-        <v>77.93445730202359</v>
+        <v>71.64382545398212</v>
       </c>
       <c r="T15" t="n">
-        <v>139.902022460603</v>
+        <v>133.6113906125615</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9113882128454</v>
+        <v>176.6207563648039</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>197.3826189403715</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -23676,25 +23676,25 @@
         <v>95.27363565084021</v>
       </c>
       <c r="J16" t="n">
-        <v>12.41484263875957</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K16" t="n">
-        <v>7.453525154664099</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L16" t="n">
-        <v>4.629166113207059</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M16" t="n">
-        <v>4.345987427773775</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N16" t="n">
-        <v>2.952904146645739</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O16" t="n">
-        <v>6.061704061331426</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P16" t="n">
-        <v>8.315693914541319</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q16" t="n">
         <v>14.881611906857</v>
@@ -23743,19 +23743,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>417.0573903612228</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>389.6111620280612</v>
+        <v>400.0120218739035</v>
       </c>
       <c r="H17" t="n">
-        <v>281.583905228039</v>
+        <v>291.9847650738814</v>
       </c>
       <c r="I17" t="n">
-        <v>13.211629444833</v>
+        <v>23.61248929067534</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.345527720946972</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>217.4746377536591</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7486683165484</v>
+        <v>245.3478084707061</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>343.5136608791707</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>382.0265763568142</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>398.4417214917123</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23825,7 +23825,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.96146798164902</v>
+        <v>82.56060813580669</v>
       </c>
       <c r="H18" t="n">
         <v>51.3765914518203</v>
@@ -23834,7 +23834,7 @@
         <v>10.94710714058962</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.272547700682507</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>3.849249592784178</v>
       </c>
       <c r="S18" t="n">
-        <v>67.29115669229238</v>
+        <v>77.69201653813472</v>
       </c>
       <c r="T18" t="n">
-        <v>129.9342539632269</v>
+        <v>129.4485526827621</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9105295088411</v>
+        <v>177.1236830886233</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23980,10 +23980,10 @@
         <v>411.3163106077787</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>410.4720801466514</v>
       </c>
       <c r="G20" t="n">
-        <v>389.6111620280612</v>
+        <v>390.8509445216856</v>
       </c>
       <c r="H20" t="n">
         <v>291.9847650738814</v>
@@ -24016,13 +24016,13 @@
         <v>5.493675111542547</v>
       </c>
       <c r="R20" t="n">
-        <v>8.053748723841434</v>
+        <v>17.21482607605936</v>
       </c>
       <c r="S20" t="n">
-        <v>86.45908895769033</v>
+        <v>96.85994880353266</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4746377536591</v>
+        <v>207.0737779078168</v>
       </c>
       <c r="U20" t="n">
         <v>255.7486683165484</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.4766619736441</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>92.40069905402547</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>93.25405454394979</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>82.30851216808253</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.96146798164902</v>
+        <v>82.56060813580669</v>
       </c>
       <c r="H21" t="n">
-        <v>51.3765914518203</v>
+        <v>40.97573160597797</v>
       </c>
       <c r="I21" t="n">
         <v>10.94710714058962</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.374230932000192</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.25010943862652</v>
+        <v>3.849249592784181</v>
       </c>
       <c r="S21" t="n">
         <v>77.69201653813472</v>
@@ -24104,7 +24104,7 @@
         <v>139.8494125286044</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9105295088411</v>
+        <v>177.1236830886233</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24208,7 +24208,7 @@
         <v>400.5918263891356</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,16 +24220,16 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>399.9967427842381</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H23" t="n">
         <v>291.8282880968454</v>
       </c>
       <c r="I23" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J23" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R23" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S23" t="n">
-        <v>81.45372228830281</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T23" t="n">
-        <v>204.1446193468995</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U23" t="n">
-        <v>240.689391729896</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>388.0207631529094</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>113.0590911167104</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C24" t="n">
         <v>116.3308444476703</v>
@@ -24296,7 +24296,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F24" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G24" t="n">
         <v>92.95329294796625</v>
@@ -24308,7 +24308,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J24" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.48211461353912</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T24" t="n">
-        <v>124.758407146518</v>
+        <v>125.2378131968455</v>
       </c>
       <c r="U24" t="n">
         <v>182.9099916776777</v>
@@ -24384,28 +24384,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I25" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J25" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K25" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L25" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M25" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O25" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P25" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q25" t="n">
         <v>13.39141578060923</v>
@@ -24463,10 +24463,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I26" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J26" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.196996700384968</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S26" t="n">
-        <v>87.09234767346899</v>
+        <v>87.09234767346904</v>
       </c>
       <c r="T26" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>338.8564664655339</v>
       </c>
       <c r="W26" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24539,13 +24539,13 @@
         <v>92.95329294796625</v>
       </c>
       <c r="H27" t="n">
-        <v>36.23958357756278</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I27" t="n">
         <v>10.66564216510812</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S27" t="n">
-        <v>62.48211461353912</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T27" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U27" t="n">
-        <v>176.162224816717</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V27" t="n">
-        <v>202.9234074721264</v>
+        <v>189.6602732803772</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
@@ -24621,28 +24621,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I28" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J28" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K28" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L28" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M28" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O28" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P28" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q28" t="n">
         <v>13.39141578060923</v>
@@ -24682,10 +24682,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>405.7965604151005</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24700,10 +24700,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I29" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J29" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R29" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S29" t="n">
-        <v>87.09234767346898</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T29" t="n">
         <v>202.3496992791696</v>
       </c>
       <c r="U29" t="n">
-        <v>240.689391729896</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="30">
@@ -24782,7 +24782,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J30" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,28 +24803,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R30" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T30" t="n">
-        <v>124.758407146518</v>
+        <v>125.2378131968455</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V30" t="n">
-        <v>187.8653532126472</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
         <v>179.4981091356358</v>
       </c>
       <c r="X30" t="n">
-        <v>148.5794385792545</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
         <v>138.2959597602405</v>
@@ -24858,28 +24858,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I31" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J31" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K31" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L31" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M31" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O31" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P31" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q31" t="n">
         <v>13.39141578060923</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.2304517743017</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>407.5736684273537</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>404.0016403473705</v>
@@ -24928,7 +24928,7 @@
         <v>406.6591161941419</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>407.6098058007445</v>
       </c>
       <c r="G32" t="n">
         <v>399.9967427842381</v>
@@ -24937,10 +24937,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I32" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J32" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R32" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S32" t="n">
-        <v>96.51177654778196</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4077535386488</v>
+        <v>202.3496992791696</v>
       </c>
       <c r="U32" t="n">
         <v>255.7474459893752</v>
@@ -25007,10 +25007,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F33" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G33" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H33" t="n">
         <v>51.29763783704193</v>
@@ -25019,7 +25019,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J33" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R33" t="n">
-        <v>13.7425402420767</v>
+        <v>0.4794060503274924</v>
       </c>
       <c r="S33" t="n">
-        <v>64.27703468126903</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T33" t="n">
-        <v>124.758407146518</v>
+        <v>139.8164614059971</v>
       </c>
       <c r="U33" t="n">
-        <v>167.8519374181986</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V33" t="n">
-        <v>187.8653532126472</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W33" t="n">
         <v>194.556163395115</v>
@@ -25095,28 +25095,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I34" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J34" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K34" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L34" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M34" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O34" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P34" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q34" t="n">
         <v>13.39141578060923</v>
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25168,16 +25168,16 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>399.9967427842381</v>
+        <v>384.938688524759</v>
       </c>
       <c r="H35" t="n">
         <v>291.8282880968454</v>
       </c>
       <c r="I35" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J35" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19699670038495</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S35" t="n">
-        <v>96.51177654778196</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4077535386488</v>
+        <v>204.1446193468996</v>
       </c>
       <c r="U35" t="n">
         <v>255.7474459893752</v>
       </c>
       <c r="V35" t="n">
-        <v>338.8564664655339</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>377.3693819431774</v>
       </c>
       <c r="X35" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>391.8644684703456</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>77.89523868848708</v>
+        <v>92.95329294796625</v>
       </c>
       <c r="H36" t="n">
         <v>51.29763783704193</v>
@@ -25256,7 +25256,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J36" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.330695053476177</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>77.54016887301826</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T36" t="n">
         <v>139.8164614059971</v>
       </c>
       <c r="U36" t="n">
-        <v>167.8519374181986</v>
+        <v>170.6620385220023</v>
       </c>
       <c r="V36" t="n">
-        <v>188.3447592629747</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W36" t="n">
-        <v>194.556163395115</v>
+        <v>179.4981091356358</v>
       </c>
       <c r="X36" t="n">
         <v>161.8425727710037</v>
@@ -25332,28 +25332,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I37" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J37" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K37" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L37" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M37" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O37" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P37" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q37" t="n">
         <v>13.39141578060923</v>
@@ -25393,7 +25393,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25402,7 +25402,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G38" t="n">
         <v>399.9967427842381</v>
@@ -25411,10 +25411,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I38" t="n">
-        <v>7.965387926870189</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J38" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19699670038495</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S38" t="n">
-        <v>87.09234767346898</v>
+        <v>87.09234767346904</v>
       </c>
       <c r="T38" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U38" t="n">
-        <v>240.689391729896</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="39">
@@ -25481,10 +25481,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
-        <v>92.70937201392488</v>
+        <v>78.13072380477324</v>
       </c>
       <c r="G39" t="n">
-        <v>77.89523868848708</v>
+        <v>92.95329294796625</v>
       </c>
       <c r="H39" t="n">
         <v>51.29763783704193</v>
@@ -25493,7 +25493,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J39" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,22 +25514,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>77.54016887301826</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T39" t="n">
         <v>139.8164614059971</v>
       </c>
       <c r="U39" t="n">
-        <v>168.331343468526</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V39" t="n">
-        <v>187.8653532126472</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W39" t="n">
         <v>194.556163395115</v>
@@ -25569,28 +25569,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I40" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J40" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K40" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L40" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M40" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O40" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P40" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q40" t="n">
         <v>13.39141578060923</v>
@@ -25630,16 +25630,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D41" t="n">
-        <v>404.0016403473705</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>405.8148857330146</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>399.9967427842381</v>
@@ -25648,10 +25648,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I41" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J41" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.84370531743626</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S41" t="n">
-        <v>96.51177654778196</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T41" t="n">
         <v>217.4077535386488</v>
@@ -25687,13 +25687,13 @@
         <v>255.7474459893752</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>338.8564664655339</v>
       </c>
       <c r="W41" t="n">
-        <v>379.1643020109073</v>
+        <v>383.0080073283436</v>
       </c>
       <c r="X41" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25718,10 +25718,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G42" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H42" t="n">
         <v>51.29763783704193</v>
@@ -25730,7 +25730,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J42" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,28 +25751,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.330695053476177</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>77.54016887301826</v>
+        <v>65.29221571734283</v>
       </c>
       <c r="T42" t="n">
-        <v>126.5533272142478</v>
+        <v>139.8164614059971</v>
       </c>
       <c r="U42" t="n">
-        <v>167.8519374181985</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W42" t="n">
-        <v>179.4981091356358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
-        <v>146.7845185115245</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
         <v>138.2959597602405</v>
@@ -25806,28 +25806,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I43" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J43" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K43" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L43" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M43" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O43" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P43" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q43" t="n">
         <v>13.39141578060923</v>
@@ -25879,16 +25879,16 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.9846413962156</v>
+        <v>399.9967427842381</v>
       </c>
       <c r="H44" t="n">
-        <v>291.7043547567607</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I44" t="n">
-        <v>22.55690342461458</v>
+        <v>7.965387926870228</v>
       </c>
       <c r="J44" t="n">
-        <v>3.021643902788</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R44" t="n">
-        <v>1.985093652448715</v>
+        <v>1.196996700384993</v>
       </c>
       <c r="S44" t="n">
-        <v>96.23601616822083</v>
+        <v>83.24864235603278</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1364724422805</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U44" t="n">
-        <v>237.5281706080333</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V44" t="n">
-        <v>335.6962134547129</v>
+        <v>338.8564664655339</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25952,22 +25952,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>85.43660711949202</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>74.49106474362476</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G45" t="n">
-        <v>74.72851086425395</v>
+        <v>92.95329294796625</v>
       </c>
       <c r="H45" t="n">
-        <v>51.2351047706663</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I45" t="n">
-        <v>10.44271547525859</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J45" t="n">
-        <v>4.888458418784959</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,22 +25988,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.504190801070976</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R45" t="n">
-        <v>13.34053384443211</v>
+        <v>0.4794060503274924</v>
       </c>
       <c r="S45" t="n">
-        <v>77.41990205371728</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T45" t="n">
-        <v>139.7903633642173</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9095657031111</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V45" t="n">
-        <v>186.8767224284461</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
         <v>194.556163395115</v>
@@ -26034,52 +26034,52 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>169.5540326412546</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4548824832565</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1178681715301</v>
+        <v>141.1661303916059</v>
       </c>
       <c r="I46" t="n">
-        <v>94.57521008439309</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J46" t="n">
-        <v>10.77286693432814</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K46" t="n">
-        <v>4.755254677277744</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L46" t="n">
-        <v>1.176308884163515</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7054336060544522</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O46" t="n">
-        <v>2.779019446119918</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P46" t="n">
-        <v>5.506790124936618</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.9368725197517</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R46" t="n">
-        <v>40.29501189884586</v>
+        <v>40.53908648012926</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0022870397414</v>
+        <v>166.0968869128348</v>
       </c>
       <c r="T46" t="n">
-        <v>240.3098339603297</v>
+        <v>240.3330274607752</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3749939678559</v>
+        <v>277.3752900550955</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50563.17363033179</v>
+        <v>54108.76142836631</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54108.76142836633</v>
+        <v>54108.76142836631</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63372.38623782718</v>
+        <v>63372.38623782717</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63372.3862378272</v>
+        <v>63372.38623782717</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63372.3862378272</v>
+        <v>63372.38623782715</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>63372.3862378272</v>
+        <v>63372.38623782715</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>63372.3862378272</v>
+        <v>63372.38623782715</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>63372.38623782722</v>
+        <v>63372.38623782717</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66302.3790906264</v>
+        <v>63372.38623782717</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>10069.92510596218</v>
       </c>
       <c r="E2" t="n">
-        <v>11531.95188060198</v>
+        <v>12340.59471173267</v>
       </c>
       <c r="F2" t="n">
-        <v>12340.59471173268</v>
+        <v>12340.59471173267</v>
       </c>
       <c r="G2" t="n">
         <v>13506.86759612573</v>
@@ -26334,28 +26334,28 @@
         <v>13506.86759612573</v>
       </c>
       <c r="I2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="J2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="K2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="L2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="M2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="N2" t="n">
         <v>14453.35124722374</v>
       </c>
       <c r="O2" t="n">
-        <v>14453.35124722374</v>
+        <v>14453.35124722373</v>
       </c>
       <c r="P2" t="n">
-        <v>15121.5952311955</v>
+        <v>14453.35124722373</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7813.80765460193</v>
+        <v>11935.87994777632</v>
       </c>
       <c r="F3" t="n">
-        <v>4035.497161536634</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5844.478988954153</v>
+        <v>5844.478988954168</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4099.399012973745</v>
+        <v>4099.39901297372</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>875.7640736439306</v>
+        <v>1567.650619059326</v>
       </c>
       <c r="N3" t="n">
-        <v>680.0119416580727</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>989.1304778987758</v>
+        <v>989.1304778987771</v>
       </c>
       <c r="P3" t="n">
-        <v>2750.53201199114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.143796340460254</v>
+        <v>4.147961274838982</v>
       </c>
       <c r="F4" t="n">
-        <v>4.147961274838989</v>
+        <v>4.147961274838982</v>
       </c>
       <c r="G4" t="n">
         <v>7.536526079811576</v>
       </c>
       <c r="H4" t="n">
-        <v>7.536526079811576</v>
+        <v>7.536526079811573</v>
       </c>
       <c r="I4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="J4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="K4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="L4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="M4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="N4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="O4" t="n">
-        <v>10.91115737735351</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="P4" t="n">
-        <v>13.22273493796324</v>
+        <v>10.91115737735348</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>1530.185490606025</v>
+        <v>1788.346765386281</v>
       </c>
       <c r="F5" t="n">
-        <v>1788.346765386282</v>
+        <v>1788.346765386281</v>
       </c>
       <c r="G5" t="n">
         <v>2170.534841866132</v>
@@ -26490,28 +26490,28 @@
         <v>2170.534841866132</v>
       </c>
       <c r="I5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="J5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="K5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="L5" t="n">
-        <v>2536.546945698389</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="M5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698387</v>
       </c>
       <c r="N5" t="n">
-        <v>2536.54694569839</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="O5" t="n">
-        <v>2536.546945698391</v>
+        <v>2536.546945698388</v>
       </c>
       <c r="P5" t="n">
-        <v>2794.313130654941</v>
+        <v>2536.546945698388</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74770.52268140722</v>
+        <v>-76149.16838908158</v>
       </c>
       <c r="C6" t="n">
-        <v>-24690.64156056714</v>
+        <v>-26069.2872682415</v>
       </c>
       <c r="D6" t="n">
-        <v>-24690.64156056714</v>
+        <v>-26069.2872682415</v>
       </c>
       <c r="E6" t="n">
-        <v>2185.814939053565</v>
+        <v>-2748.958981103965</v>
       </c>
       <c r="F6" t="n">
-        <v>6512.602823534922</v>
+        <v>9186.920966672353</v>
       </c>
       <c r="G6" t="n">
-        <v>5484.317239225629</v>
+        <v>4132.109550706372</v>
       </c>
       <c r="H6" t="n">
-        <v>11328.79622817978</v>
+        <v>9976.588539660541</v>
       </c>
       <c r="I6" t="n">
-        <v>7806.49413117425</v>
+        <v>6461.567086125007</v>
       </c>
       <c r="J6" t="n">
-        <v>11905.893144148</v>
+        <v>10560.96609909873</v>
       </c>
       <c r="K6" t="n">
-        <v>11905.89314414799</v>
+        <v>10560.96609909873</v>
       </c>
       <c r="L6" t="n">
-        <v>11905.893144148</v>
+        <v>10560.96609909873</v>
       </c>
       <c r="M6" t="n">
-        <v>11030.12907050407</v>
+        <v>8993.315480039402</v>
       </c>
       <c r="N6" t="n">
-        <v>11225.88120248993</v>
+        <v>10560.96609909873</v>
       </c>
       <c r="O6" t="n">
-        <v>10916.76266624922</v>
+        <v>9571.835621199949</v>
       </c>
       <c r="P6" t="n">
-        <v>9563.527353611455</v>
+        <v>10560.96609909873</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>60.39079609723841</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="F3" t="n">
-        <v>64.48974078097982</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="G3" t="n">
         <v>70.55791574490449</v>
@@ -26758,28 +26758,28 @@
         <v>70.55791574490449</v>
       </c>
       <c r="I3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="J3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="K3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="L3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="M3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="N3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="O3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="P3" t="n">
-        <v>77.36880956975664</v>
+        <v>74.35858929917691</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F4" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="G4" t="n">
         <v>10.40085984584234</v>
@@ -26810,28 +26810,28 @@
         <v>10.40085984584234</v>
       </c>
       <c r="I4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="J4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="K4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="L4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="M4" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N4" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O4" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="P4" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947913</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.419848091306498</v>
+        <v>12.51879277504788</v>
       </c>
       <c r="F3" t="n">
-        <v>4.098944683741394</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.068174963924676</v>
+        <v>6.06817496392469</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.80067355427245</v>
+        <v>3.800673554272421</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.010220270579694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F4" t="n">
-        <v>2.77638619530747</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.110227997800859</v>
+        <v>4.11022799780087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.657194413636805</v>
+        <v>4.657194413636791</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.514245652734028</v>
+        <v>6.290631848041468</v>
       </c>
       <c r="N4" t="n">
-        <v>2.77638619530747</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.110227997800864</v>
+        <v>4.11022799780087</v>
       </c>
       <c r="P4" t="n">
-        <v>3.160253010820945</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N4" t="n">
-        <v>2.77638619530747</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.110227997800859</v>
+        <v>4.11022799780087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H2" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I2" t="n">
         <v>8.05471345929122</v>
@@ -31068,7 +31068,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P2" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q2" t="n">
         <v>22.56192044814304</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H3" t="n">
         <v>1.079622901028888</v>
@@ -31150,7 +31150,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R3" t="n">
         <v>6.940573018603515</v>
@@ -31202,7 +31202,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I4" t="n">
         <v>2.818358950879063</v>
@@ -31229,13 +31229,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R4" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S4" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T4" t="n">
         <v>0.4004318944719343</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2427770697376417</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H11" t="n">
-        <v>2.486340665450623</v>
+        <v>2.655097719691293</v>
       </c>
       <c r="I11" t="n">
-        <v>9.35966298106044</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J11" t="n">
-        <v>20.60540032264518</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K11" t="n">
-        <v>30.88215368463957</v>
+        <v>32.97823864871783</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M11" t="n">
-        <v>40.94550855216583</v>
+        <v>43.72189474747329</v>
       </c>
       <c r="N11" t="n">
-        <v>40.79386848718003</v>
+        <v>43.57025468248749</v>
       </c>
       <c r="O11" t="n">
-        <v>40.90520500875811</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P11" t="n">
-        <v>34.91164609961007</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.21719228963077</v>
+        <v>27.996649225174</v>
       </c>
       <c r="R11" t="n">
-        <v>15.25034510690715</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S11" t="n">
-        <v>5.532282476646516</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T11" t="n">
-        <v>1.062756622776527</v>
+        <v>1.134889810125584</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01942216557901133</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1298971840582109</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H12" t="n">
-        <v>1.254533330246406</v>
+        <v>1.339683105657713</v>
       </c>
       <c r="I12" t="n">
-        <v>4.472337258144544</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J12" t="n">
-        <v>12.27243527104352</v>
+        <v>13.10541043550081</v>
       </c>
       <c r="K12" t="n">
-        <v>20.97554660294365</v>
+        <v>22.39923383333333</v>
       </c>
       <c r="L12" t="n">
-        <v>26.02933236696357</v>
+        <v>28.80571856227103</v>
       </c>
       <c r="M12" t="n">
-        <v>23.43521273634441</v>
+        <v>29.38741236036945</v>
       </c>
       <c r="N12" t="n">
-        <v>24.85727386627568</v>
+        <v>27.63366006158314</v>
       </c>
       <c r="O12" t="n">
-        <v>26.68613537495623</v>
+        <v>24.49094739662112</v>
       </c>
       <c r="P12" t="n">
-        <v>24.80466491020346</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.58126160013233</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R12" t="n">
-        <v>8.065019901438749</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S12" t="n">
-        <v>2.412783221432118</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5235768076732272</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008545867372250722</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.108901435585184</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9682327636573641</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I13" t="n">
-        <v>3.274963171961716</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J13" t="n">
-        <v>7.699331495872509</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K13" t="n">
-        <v>12.65236678889683</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L13" t="n">
-        <v>16.19067343236454</v>
+        <v>17.28959378249416</v>
       </c>
       <c r="M13" t="n">
-        <v>17.07079503450298</v>
+        <v>18.22945246371204</v>
       </c>
       <c r="N13" t="n">
-        <v>16.66488968368549</v>
+        <v>17.79599682895465</v>
       </c>
       <c r="O13" t="n">
-        <v>15.39272291344038</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P13" t="n">
-        <v>13.17113362750261</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.119010210683001</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R13" t="n">
-        <v>4.896604549130181</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S13" t="n">
-        <v>1.897855018334525</v>
+        <v>2.026669394707184</v>
       </c>
       <c r="T13" t="n">
-        <v>0.465306133863968</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005940078304646408</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2592552393205217</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H14" t="n">
         <v>2.655097719691293</v>
       </c>
       <c r="I14" t="n">
-        <v>9.994937613904421</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J14" t="n">
-        <v>22.00396436828015</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K14" t="n">
         <v>32.97823864871783</v>
       </c>
       <c r="L14" t="n">
-        <v>40.91242117907326</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M14" t="n">
-        <v>43.7218947474733</v>
+        <v>43.72189474747329</v>
       </c>
       <c r="N14" t="n">
-        <v>43.5702546824875</v>
+        <v>43.57025468248749</v>
       </c>
       <c r="O14" t="n">
-        <v>43.68159120406558</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P14" t="n">
-        <v>37.2812274833402</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q14" t="n">
         <v>27.996649225174</v>
       </c>
       <c r="R14" t="n">
-        <v>16.28544192696774</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S14" t="n">
-        <v>5.907778766016394</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T14" t="n">
         <v>1.134889810125584</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02074041914564173</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1387137820572019</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H15" t="n">
         <v>1.339683105657713</v>
       </c>
       <c r="I15" t="n">
-        <v>4.775891180478223</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J15" t="n">
         <v>13.10541043550081</v>
@@ -32083,34 +32083,34 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>28.80571856227104</v>
+        <v>23.83414438862845</v>
       </c>
       <c r="M15" t="n">
-        <v>29.38741236036946</v>
+        <v>29.38741236036945</v>
       </c>
       <c r="N15" t="n">
-        <v>22.66208588794056</v>
+        <v>27.63366006158314</v>
       </c>
       <c r="O15" t="n">
-        <v>29.4625215702637</v>
+        <v>29.46252157026369</v>
       </c>
       <c r="P15" t="n">
         <v>26.48824843511603</v>
       </c>
       <c r="Q15" t="n">
-        <v>17.70669260084563</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R15" t="n">
-        <v>8.612422363165573</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S15" t="n">
-        <v>2.576547662334428</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5591138846954757</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U15" t="n">
-        <v>0.009125906714289601</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1162929751788161</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H16" t="n">
-        <v>1.033950270226202</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I16" t="n">
-        <v>3.497246926286578</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J16" t="n">
-        <v>8.221913345142294</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K16" t="n">
-        <v>13.5111292980479</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L16" t="n">
         <v>17.28959378249416</v>
@@ -32171,25 +32171,25 @@
         <v>17.79599682895465</v>
       </c>
       <c r="O16" t="n">
-        <v>16.43748343709303</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P16" t="n">
-        <v>14.06510674344517</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.737950857927952</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R16" t="n">
-        <v>5.228955047585673</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S16" t="n">
         <v>2.026669394707184</v>
       </c>
       <c r="T16" t="n">
-        <v>0.496888166673123</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006343253191571792</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>14.33856663265083</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>24.50689418849197</v>
       </c>
       <c r="L18" t="n">
-        <v>25.28588557230472</v>
+        <v>32.9159465600719</v>
       </c>
       <c r="M18" t="n">
         <v>33.49764035817032</v>
@@ -32329,10 +32329,10 @@
         <v>31.74388805938401</v>
       </c>
       <c r="O18" t="n">
-        <v>33.57274956806457</v>
+        <v>31.04485245145775</v>
       </c>
       <c r="P18" t="n">
-        <v>28.98066543114766</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>19.37280735697831</v>
@@ -32481,7 +32481,7 @@
         <v>44.76208357352368</v>
       </c>
       <c r="M20" t="n">
-        <v>47.83212274527416</v>
+        <v>47.83212274527415</v>
       </c>
       <c r="N20" t="n">
         <v>47.68048268028836</v>
@@ -32554,22 +32554,22 @@
         <v>14.33856663265083</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>24.50689418849197</v>
       </c>
       <c r="L21" t="n">
-        <v>32.9159465600719</v>
+        <v>32.91594656007189</v>
       </c>
       <c r="M21" t="n">
-        <v>25.86757937040315</v>
+        <v>33.49764035817032</v>
       </c>
       <c r="N21" t="n">
-        <v>31.74388805938401</v>
+        <v>31.743888059384</v>
       </c>
       <c r="O21" t="n">
-        <v>33.57274956806457</v>
+        <v>31.04485245145775</v>
       </c>
       <c r="P21" t="n">
-        <v>28.98066543114766</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>19.37280735697831</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H23" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I23" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J23" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K23" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L23" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M23" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N23" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O23" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P23" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R23" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S23" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T23" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H24" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I24" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J24" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L24" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M24" t="n">
-        <v>31.79699037975687</v>
+        <v>28.36924136188457</v>
       </c>
       <c r="N24" t="n">
-        <v>36.40108247302081</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O24" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P24" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R24" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S24" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H25" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I25" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J25" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K25" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L25" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M25" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N25" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O25" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P25" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R25" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S25" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H26" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I26" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J26" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K26" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L26" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M26" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N26" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O26" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P26" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R26" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S26" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T26" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H27" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I27" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J27" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K27" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L27" t="n">
-        <v>24.94197228116947</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M27" t="n">
-        <v>38.15483477180712</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N27" t="n">
-        <v>36.40108247302081</v>
+        <v>26.61548906309825</v>
       </c>
       <c r="O27" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P27" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R27" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S27" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H28" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I28" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J28" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K28" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L28" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M28" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N28" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O28" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P28" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R28" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S28" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H29" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I29" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J29" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K29" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L29" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M29" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N29" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O29" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P29" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R29" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S29" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T29" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H30" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I30" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J30" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K30" t="n">
-        <v>25.82698285120564</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>34.72756569109202</v>
+        <v>28.36972129904177</v>
       </c>
       <c r="M30" t="n">
-        <v>38.15483477180712</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N30" t="n">
-        <v>26.61548906309826</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O30" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P30" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R30" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S30" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H31" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I31" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J31" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K31" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L31" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M31" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N31" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O31" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P31" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R31" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S31" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H32" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I32" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J32" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K32" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L32" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M32" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N32" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O32" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P32" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R32" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S32" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T32" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H33" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I33" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J33" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K33" t="n">
-        <v>25.82698285120564</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M33" t="n">
-        <v>38.15483477180712</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N33" t="n">
-        <v>36.40108247302081</v>
+        <v>30.04323808097054</v>
       </c>
       <c r="O33" t="n">
-        <v>28.26846690811945</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P33" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R33" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S33" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H34" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I34" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J34" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K34" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L34" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M34" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N34" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O34" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P34" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R34" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S34" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H35" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I35" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J35" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K35" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L35" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M35" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N35" t="n">
-        <v>52.33767709392519</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O35" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P35" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R35" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S35" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T35" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H36" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I36" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J36" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K36" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L36" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M36" t="n">
-        <v>28.36924136188463</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N36" t="n">
-        <v>36.40108247302083</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O36" t="n">
-        <v>38.054060318042</v>
+        <v>37.03936401373949</v>
       </c>
       <c r="P36" t="n">
-        <v>30.54173831044874</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R36" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S36" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H37" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I37" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J37" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K37" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L37" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M37" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N37" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O37" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P37" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q37" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R37" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S37" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H38" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I38" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J38" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K38" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L38" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M38" t="n">
-        <v>52.48931715891098</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N38" t="n">
-        <v>52.33767709392519</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O38" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P38" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q38" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R38" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S38" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T38" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H39" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I39" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J39" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K39" t="n">
-        <v>25.82698285120564</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L39" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M39" t="n">
-        <v>38.15483477180714</v>
+        <v>37.14013846750463</v>
       </c>
       <c r="N39" t="n">
-        <v>26.61548906309831</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O39" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P39" t="n">
-        <v>30.54173831044874</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R39" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S39" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H40" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I40" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J40" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K40" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L40" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M40" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N40" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O40" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P40" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R40" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S40" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U40" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H41" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I41" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J41" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K41" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L41" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M41" t="n">
-        <v>52.48931715891098</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N41" t="n">
-        <v>52.33767709392519</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O41" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P41" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R41" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S41" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T41" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H42" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I42" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J42" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K42" t="n">
-        <v>25.82698285120564</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M42" t="n">
-        <v>38.15483477180715</v>
+        <v>31.79699037975686</v>
       </c>
       <c r="N42" t="n">
-        <v>26.61548906309832</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O42" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P42" t="n">
-        <v>30.54173831044874</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R42" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S42" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H43" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I43" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J43" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K43" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L43" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M43" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N43" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O43" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P43" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q43" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R43" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S43" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3110303902301772</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H44" t="n">
-        <v>3.185339983944803</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I44" t="n">
-        <v>11.99099911934892</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J44" t="n">
-        <v>26.39831558279852</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K44" t="n">
-        <v>39.56423200124193</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L44" t="n">
-        <v>49.08292830624873</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M44" t="n">
-        <v>54.61421500850464</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N44" t="n">
-        <v>55.49793010474614</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O44" t="n">
-        <v>52.40512166189481</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P44" t="n">
-        <v>44.7265589030873</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.58778305296907</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R44" t="n">
-        <v>19.53776275029638</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S44" t="n">
-        <v>7.08760501737017</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T44" t="n">
-        <v>1.361535533232601</v>
+        <v>1.30856170716441</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.1599411166057768</v>
       </c>
       <c r="H45" t="n">
-        <v>1.607227534647209</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I45" t="n">
-        <v>5.729671274741412</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J45" t="n">
-        <v>15.72265591454838</v>
+        <v>15.11092803861859</v>
       </c>
       <c r="K45" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>36.13342375236606</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M45" t="n">
-        <v>41.31508778262809</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N45" t="n">
-        <v>30.74023446979461</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O45" t="n">
-        <v>39.59458313896781</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P45" t="n">
-        <v>31.77814368913269</v>
+        <v>24.18389391839847</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.24284748790752</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R45" t="n">
-        <v>10.33238554971203</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S45" t="n">
-        <v>3.091102910640747</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6707729810811918</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01094841644855047</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H46" t="n">
-        <v>1.240437635397083</v>
+        <v>1.192175415321231</v>
       </c>
       <c r="I46" t="n">
-        <v>4.195672492733689</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J46" t="n">
-        <v>9.863889049573725</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K46" t="n">
-        <v>16.20939977543425</v>
+        <v>15.57873395481116</v>
       </c>
       <c r="L46" t="n">
-        <v>20.74245101153771</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M46" t="n">
-        <v>21.87000628543137</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N46" t="n">
-        <v>21.34998641783138</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O46" t="n">
-        <v>19.72016805230453</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P46" t="n">
-        <v>16.87401053304987</v>
+        <v>16.21748642682376</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.68269024503325</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R46" t="n">
-        <v>6.273215280852725</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S46" t="n">
-        <v>2.431409966315138</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5961203360292722</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00761004684292689</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3384322240164294</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O12" t="n">
-        <v>3.514245652734012</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="P12" t="n">
-        <v>3.033823705374793</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.600378746450332</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M14" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N14" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O14" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.290631848041482</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="M15" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N15" t="n">
-        <v>1.3190576743989</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O15" t="n">
-        <v>6.290631848041482</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P15" t="n">
-        <v>4.717407230287371</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.107660355158632</v>
       </c>
       <c r="L18" t="n">
-        <v>2.770798858075166</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="M18" t="n">
         <v>10.40085984584234</v>
@@ -35977,10 +35977,10 @@
         <v>10.40085984584234</v>
       </c>
       <c r="O18" t="n">
-        <v>10.40085984584234</v>
+        <v>7.872962729235533</v>
       </c>
       <c r="P18" t="n">
-        <v>7.209824226318997</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2.107660355158632</v>
       </c>
       <c r="L21" t="n">
         <v>10.40085984584234</v>
       </c>
       <c r="M21" t="n">
-        <v>2.770798858075167</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="N21" t="n">
         <v>10.40085984584234</v>
       </c>
       <c r="O21" t="n">
-        <v>10.40085984584234</v>
+        <v>7.872962729235526</v>
       </c>
       <c r="P21" t="n">
-        <v>7.209824226318997</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L23" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M23" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N23" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O23" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P23" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L24" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M24" t="n">
-        <v>8.700209867428892</v>
+        <v>5.272460849556587</v>
       </c>
       <c r="N24" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O24" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P24" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L26" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N26" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O26" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P26" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L27" t="n">
-        <v>2.426885566939913</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M27" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N27" t="n">
-        <v>15.05805425947915</v>
+        <v>5.272460849556587</v>
       </c>
       <c r="O27" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P27" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L29" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M29" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N29" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O29" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P29" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.427749017872301</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>12.21247897686247</v>
+        <v>5.854634584812209</v>
       </c>
       <c r="M30" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N30" t="n">
-        <v>5.272460849556591</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O30" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P30" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L32" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N32" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O32" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P32" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.427749017872301</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M33" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N33" t="n">
-        <v>15.05805425947915</v>
+        <v>8.700209867428876</v>
       </c>
       <c r="O33" t="n">
-        <v>5.096577185897227</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P33" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L35" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M35" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N35" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O35" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P35" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L36" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M36" t="n">
-        <v>5.272460849556648</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N36" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O36" t="n">
-        <v>14.88217059581978</v>
+        <v>13.86747429151727</v>
       </c>
       <c r="P36" t="n">
-        <v>8.770897105620072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L38" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M38" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N38" t="n">
-        <v>15.05805425947916</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O38" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P38" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>3.427749017872301</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L39" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M39" t="n">
-        <v>15.05805425947916</v>
+        <v>14.04335795517665</v>
       </c>
       <c r="N39" t="n">
-        <v>5.272460849556644</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O39" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P39" t="n">
-        <v>8.770897105620072</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L41" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M41" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N41" t="n">
-        <v>15.05805425947917</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O41" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P41" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.427749017872301</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M42" t="n">
-        <v>15.05805425947917</v>
+        <v>8.700209867428876</v>
       </c>
       <c r="N42" t="n">
-        <v>5.272460849556655</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O42" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P42" t="n">
-        <v>8.770897105620072</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.799631206432593</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L44" t="n">
-        <v>10.77088587362581</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M44" t="n">
-        <v>17.18295210907283</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N44" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O44" t="n">
-        <v>15.01416230587071</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P44" t="n">
-        <v>7.151197092856002</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4.473289392418835</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>13.61833703813651</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M45" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N45" t="n">
-        <v>9.397206256252952</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O45" t="n">
-        <v>16.42269341674559</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P45" t="n">
-        <v>10.00730248430402</v>
+        <v>2.413052713569813</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.601085442230989</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
